--- a/LinearResistor.xlsx
+++ b/LinearResistor.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eme_p\OneDrive\Documentos\Tec\Semestre9\ProyectoRobotica\TestESP32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eme_p\Documents\Tec\Semestre9\ProyectoRobotica\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47A357-60CF-491A-B4BE-323D6E3F411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB69EF1-B58F-49BD-8C4D-61605512719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFAB07E4-9554-46DE-91FE-5B8B62AAE7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$5:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$5:$B$22</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3379,7 +3375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2898BCC7-59C0-4451-81C4-463E162B1FE3}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
